--- a/StructureDefinition-PEMHbundleRquest.xlsx
+++ b/StructureDefinition-PEMHbundleRquest.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$128</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4683" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4720" uniqueCount="418">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T20:39:01+00:00</t>
+    <t>2023-02-09T22:10:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1219,20 +1219,41 @@
     <t>Bundle.signature.who[x]</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>Who signed</t>
+  </si>
+  <si>
+    <t>A reference to an application-usable description of the identity that signed  (e.g. the signature used their private key).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Signature.who[x]</t>
+  </si>
+  <si>
+    <t>Bundle.signature.who[x]:whoReference</t>
+  </si>
+  <si>
+    <t>whoReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner)
+</t>
+  </si>
+  <si>
+    <t>Bundle.signature.onBehalfOf[x]</t>
+  </si>
+  <si>
     <t>uri
 Reference(Practitioner|RelatedPerson|Patient|Device|Organization)</t>
-  </si>
-  <si>
-    <t>Who signed</t>
-  </si>
-  <si>
-    <t>A reference to an application-usable description of the identity that signed  (e.g. the signature used their private key).</t>
-  </si>
-  <si>
-    <t>Signature.who[x]</t>
-  </si>
-  <si>
-    <t>Bundle.signature.onBehalfOf[x]</t>
   </si>
   <si>
     <t>The party represented</t>
@@ -1604,7 +1625,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO127"/>
+  <dimension ref="A1:AO128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -16015,19 +16036,17 @@
         <v>78</v>
       </c>
       <c r="AB124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC124" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="AC124" s="2"/>
       <c r="AD124" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>78</v>
+        <v>394</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>87</v>
@@ -16059,18 +16078,20 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="C125" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="C125" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="D125" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>87</v>
@@ -16085,20 +16106,18 @@
         <v>88</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
         <v>78</v>
       </c>
@@ -16146,10 +16165,10 @@
         <v>78</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>87</v>
@@ -16178,10 +16197,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -16204,7 +16223,7 @@
         <v>88</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>155</v>
+        <v>400</v>
       </c>
       <c r="L126" t="s" s="2">
         <v>401</v>
@@ -16212,8 +16231,12 @@
       <c r="M126" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="N126" s="2"/>
-      <c r="O126" s="2"/>
+      <c r="N126" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="O126" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="P126" t="s" s="2">
         <v>78</v>
       </c>
@@ -16237,13 +16260,13 @@
         <v>78</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>403</v>
+        <v>78</v>
       </c>
       <c r="Z126" t="s" s="2">
-        <v>404</v>
+        <v>78</v>
       </c>
       <c r="AA126" t="s" s="2">
         <v>78</v>
@@ -16316,20 +16339,18 @@
         <v>78</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L127" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L127" t="s" s="2">
+      <c r="M127" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="M127" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>410</v>
-      </c>
+      <c r="N127" s="2"/>
       <c r="O127" s="2"/>
       <c r="P127" t="s" s="2">
         <v>78</v>
@@ -16354,13 +16375,13 @@
         <v>78</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>78</v>
+        <v>409</v>
       </c>
       <c r="Z127" t="s" s="2">
-        <v>78</v>
+        <v>410</v>
       </c>
       <c r="AA127" t="s" s="2">
         <v>78</v>
@@ -16408,8 +16429,125 @@
         <v>78</v>
       </c>
     </row>
+    <row r="128" hidden="true">
+      <c r="A128" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="C128" s="2"/>
+      <c r="D128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E128" s="2"/>
+      <c r="F128" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G128" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K128" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N128" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="O128" s="2"/>
+      <c r="P128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q128" s="2"/>
+      <c r="R128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF128" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AG128" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH128" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO128" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AO127">
+  <autoFilter ref="A1:AO128">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -16419,7 +16557,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI126">
+  <conditionalFormatting sqref="A2:AI127">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-PEMHbundleRquest.xlsx
+++ b/StructureDefinition-PEMHbundleRquest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T22:10:16+00:00</t>
+    <t>2023-02-10T09:10:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PEMHbundleRquest.xlsx
+++ b/StructureDefinition-PEMHbundleRquest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T09:10:53+00:00</t>
+    <t>2023-02-16T19:26:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PEMHbundleRquest.xlsx
+++ b/StructureDefinition-PEMHbundleRquest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T19:26:47+00:00</t>
+    <t>2023-02-16T20:28:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PEMHbundleRquest.xlsx
+++ b/StructureDefinition-PEMHbundleRquest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T20:28:10+00:00</t>
+    <t>2023-02-16T21:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PEMHbundleRquest.xlsx
+++ b/StructureDefinition-PEMHbundleRquest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T21:17:23+00:00</t>
+    <t>2023-02-16T21:36:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
